--- a/data/trans_orig/P42A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>63418</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48666</v>
+        <v>51853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77209</v>
+        <v>77729</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2249435590439294</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1726168041718642</v>
+        <v>0.183922917383831</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.273860479748463</v>
+        <v>0.2757034719425651</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>58370</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45734</v>
+        <v>46672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72398</v>
+        <v>73077</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2070368542447785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1622189510152592</v>
+        <v>0.1655457253837002</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2567958739651288</v>
+        <v>0.2592021657762581</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>60656</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47475</v>
+        <v>48012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75920</v>
+        <v>77503</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2151466511168678</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1683914107255493</v>
+        <v>0.1702992029419392</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2692855445467607</v>
+        <v>0.2748999597399162</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>50223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37754</v>
+        <v>39044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63853</v>
+        <v>64859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1781403948240463</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1339123170547804</v>
+        <v>0.1384875694509836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.226486685549797</v>
+        <v>0.2300520089813162</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>49262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37901</v>
+        <v>37583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64643</v>
+        <v>62384</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.174732540770378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.13443290462323</v>
+        <v>0.1333049970038584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2292864767521004</v>
+        <v>0.2212745434424995</v>
       </c>
     </row>
     <row r="9">
@@ -802,19 +802,19 @@
         <v>81495</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66045</v>
+        <v>65549</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98024</v>
+        <v>98955</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2246602035185651</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1820671865548869</v>
+        <v>0.1807000588625119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2702263826126899</v>
+        <v>0.2727916664562399</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>69640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55384</v>
+        <v>55943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>86120</v>
+        <v>87226</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1919772216925973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1526787708451524</v>
+        <v>0.1542190749543805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2374092772022163</v>
+        <v>0.2404574173866433</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>76360</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61990</v>
+        <v>62267</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92161</v>
+        <v>93893</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2105034385111488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1708900523053945</v>
+        <v>0.1716534258185455</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2540630061833257</v>
+        <v>0.2588381602364181</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>75544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>59644</v>
+        <v>59720</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91051</v>
+        <v>91019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2082530042165603</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1644208841258617</v>
+        <v>0.1646317887061721</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2510039875148509</v>
+        <v>0.2509143308197717</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>59711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45648</v>
+        <v>46762</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73885</v>
+        <v>75564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1646061320611285</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1258391684558719</v>
+        <v>0.1289087528075206</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2036803456622721</v>
+        <v>0.208309490913663</v>
       </c>
     </row>
     <row r="15">
@@ -980,19 +980,19 @@
         <v>68651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54615</v>
+        <v>54589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83020</v>
+        <v>85508</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2214394204900062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1761657014121336</v>
+        <v>0.1760817484483646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2677893509284309</v>
+        <v>0.2758140072781919</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>55683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43456</v>
+        <v>44395</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70339</v>
+        <v>70654</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1796108494084794</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1401700491550225</v>
+        <v>0.1431996279483521</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2268833331778648</v>
+        <v>0.227900388469744</v>
       </c>
     </row>
     <row r="18">
@@ -1038,19 +1038,19 @@
         <v>84008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70212</v>
+        <v>68019</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>101102</v>
+        <v>100082</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.270976659920119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.226475453335043</v>
+        <v>0.2194013290269935</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.326112030544233</v>
+        <v>0.3228222957310842</v>
       </c>
     </row>
     <row r="19">
@@ -1067,19 +1067,19 @@
         <v>60770</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47461</v>
+        <v>47093</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76896</v>
+        <v>74738</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1960195769611963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1530895540285964</v>
+        <v>0.1519018195426234</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2480340589855397</v>
+        <v>0.2410727050852927</v>
       </c>
     </row>
     <row r="20">
@@ -1096,19 +1096,19 @@
         <v>40908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29828</v>
+        <v>30155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55078</v>
+        <v>54266</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1319534932201992</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09621345397301537</v>
+        <v>0.09726762883555562</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1776576933742199</v>
+        <v>0.1750384273235991</v>
       </c>
     </row>
     <row r="21">
@@ -1158,19 +1158,19 @@
         <v>26142</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18560</v>
+        <v>17967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35638</v>
+        <v>36374</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2266695569441826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1609277785031288</v>
+        <v>0.1557906610207987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3090056760411875</v>
+        <v>0.3153910432872351</v>
       </c>
     </row>
     <row r="23">
@@ -1187,19 +1187,19 @@
         <v>17087</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10929</v>
+        <v>11003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25428</v>
+        <v>26047</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.148152611373441</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09476301503716671</v>
+        <v>0.09540395038076754</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2204810278784324</v>
+        <v>0.2258423559012342</v>
       </c>
     </row>
     <row r="24">
@@ -1216,19 +1216,19 @@
         <v>26876</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18728</v>
+        <v>19301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37156</v>
+        <v>36096</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2330300017393825</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.162384715220217</v>
+        <v>0.1673526466878137</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.322164385698665</v>
+        <v>0.3129800941656637</v>
       </c>
     </row>
     <row r="25">
@@ -1245,19 +1245,19 @@
         <v>23889</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16026</v>
+        <v>16657</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32860</v>
+        <v>34040</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2071328899626963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1389559901534282</v>
+        <v>0.1444260802233219</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2849209132174236</v>
+        <v>0.2951509959734701</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>21338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13810</v>
+        <v>13740</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30105</v>
+        <v>30475</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1850149399802976</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1197410697216221</v>
+        <v>0.1191388061558535</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2610275230779919</v>
+        <v>0.2642432916641052</v>
       </c>
     </row>
     <row r="27">
@@ -1336,19 +1336,19 @@
         <v>239706</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>215502</v>
+        <v>212818</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>266832</v>
+        <v>269092</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.224018275272344</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2013980761000863</v>
+        <v>0.1988892239127237</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2493682198155558</v>
+        <v>0.2514807648191014</v>
       </c>
     </row>
     <row r="29">
@@ -1365,19 +1365,19 @@
         <v>200779</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>175827</v>
+        <v>177568</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>227771</v>
+        <v>228656</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1876386238820977</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1643192423401356</v>
+        <v>0.1659468236092315</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2128635847071186</v>
+        <v>0.2136914169248561</v>
       </c>
     </row>
     <row r="30">
@@ -1394,19 +1394,19 @@
         <v>247900</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>222331</v>
+        <v>220329</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>275134</v>
+        <v>274059</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2316757796111907</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2077797237796289</v>
+        <v>0.2059085848394828</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2571271287678829</v>
+        <v>0.2561227494814758</v>
       </c>
     </row>
     <row r="31">
@@ -1423,19 +1423,19 @@
         <v>210426</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>183688</v>
+        <v>184679</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>233787</v>
+        <v>233654</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1966538581927227</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1716665216678997</v>
+        <v>0.1725919208600777</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2184865005670048</v>
+        <v>0.2183623462530465</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         <v>171219</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>147598</v>
+        <v>147528</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>195441</v>
+        <v>195306</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.160013463041645</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1379384484002194</v>
+        <v>0.1378725567943168</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1826498539245869</v>
+        <v>0.1825236228923193</v>
       </c>
     </row>
     <row r="33">
@@ -1632,19 +1632,19 @@
         <v>138904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>116184</v>
+        <v>117102</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163404</v>
+        <v>161879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1413422891446621</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1182227203050965</v>
+        <v>0.1191569660324876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1662713781752699</v>
+        <v>0.1647198702467886</v>
       </c>
     </row>
     <row r="5">
@@ -1661,19 +1661,19 @@
         <v>237301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211669</v>
+        <v>208625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266886</v>
+        <v>265568</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2414663039152513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2153840282909637</v>
+        <v>0.2122868666207243</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2715701184875269</v>
+        <v>0.2702292612716715</v>
       </c>
     </row>
     <row r="6">
@@ -1690,19 +1690,19 @@
         <v>267157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>238478</v>
+        <v>240743</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>295852</v>
+        <v>297733</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2718461002191085</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.242663434696721</v>
+        <v>0.2449684193282391</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3010444167282448</v>
+        <v>0.3029581674087059</v>
       </c>
     </row>
     <row r="7">
@@ -1719,19 +1719,19 @@
         <v>202842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175711</v>
+        <v>177077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>229354</v>
+        <v>229972</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.206402300907956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1787953249887283</v>
+        <v>0.1801847177036665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2333794274236332</v>
+        <v>0.2340085893404997</v>
       </c>
     </row>
     <row r="8">
@@ -1748,19 +1748,19 @@
         <v>136547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>116935</v>
+        <v>114650</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>159877</v>
+        <v>160835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1389430058130221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1189869354566937</v>
+        <v>0.1166623907351108</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1626825812046764</v>
+        <v>0.1636575916071543</v>
       </c>
     </row>
     <row r="9">
@@ -1810,19 +1810,19 @@
         <v>83429</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66607</v>
+        <v>65767</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101534</v>
+        <v>103428</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08983231464824724</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07171933921609699</v>
+        <v>0.07081470001144996</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1093272597084514</v>
+        <v>0.1113660338144085</v>
       </c>
     </row>
     <row r="11">
@@ -1839,19 +1839,19 @@
         <v>204691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178642</v>
+        <v>181039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>233762</v>
+        <v>232587</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2204020108203751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.192353773232598</v>
+        <v>0.1949346808089588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2517037533400044</v>
+        <v>0.2504390394875221</v>
       </c>
     </row>
     <row r="12">
@@ -1868,19 +1868,19 @@
         <v>287556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>258432</v>
+        <v>259332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>316948</v>
+        <v>319388</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3096270786289194</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2782677793716773</v>
+        <v>0.2792366166026701</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3412744001463235</v>
+        <v>0.3439023530931133</v>
       </c>
     </row>
     <row r="13">
@@ -1897,19 +1897,19 @@
         <v>199855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175966</v>
+        <v>176191</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227277</v>
+        <v>228363</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2151948744127197</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1894714490562036</v>
+        <v>0.1897139841088825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2447212481259519</v>
+        <v>0.2458903587525744</v>
       </c>
     </row>
     <row r="14">
@@ -1926,19 +1926,19 @@
         <v>153186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>129898</v>
+        <v>130751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>179033</v>
+        <v>176364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1649437214897386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1398685726227301</v>
+        <v>0.1407862299148902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1927747767666126</v>
+        <v>0.1899007386449702</v>
       </c>
     </row>
     <row r="15">
@@ -1988,19 +1988,19 @@
         <v>75734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60969</v>
+        <v>59785</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93845</v>
+        <v>92877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0991597016314517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07982832625401612</v>
+        <v>0.07827723142146854</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1228730250891778</v>
+        <v>0.1216055921586368</v>
       </c>
     </row>
     <row r="17">
@@ -2017,19 +2017,19 @@
         <v>165991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142869</v>
+        <v>143553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190311</v>
+        <v>191680</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2173353365828606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1870604116786037</v>
+        <v>0.1879560303921324</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2491779871574939</v>
+        <v>0.2509700681536481</v>
       </c>
     </row>
     <row r="18">
@@ -2046,19 +2046,19 @@
         <v>234871</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>210856</v>
+        <v>209618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>260975</v>
+        <v>261982</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3075200315972351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2760778593584221</v>
+        <v>0.2744560978012977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.341699247349544</v>
+        <v>0.3430177968540773</v>
       </c>
     </row>
     <row r="19">
@@ -2075,19 +2075,19 @@
         <v>148878</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>125228</v>
+        <v>127909</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>171677</v>
+        <v>173670</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1949290386570945</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.163962764611423</v>
+        <v>0.1674731825648635</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2247799228248985</v>
+        <v>0.2273895787031346</v>
       </c>
     </row>
     <row r="20">
@@ -2104,19 +2104,19 @@
         <v>138283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118697</v>
+        <v>117501</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>163227</v>
+        <v>161931</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1810558915313582</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.155412231826968</v>
+        <v>0.1538464712287135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2137160920399156</v>
+        <v>0.2120193194681386</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>28273</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19148</v>
+        <v>19270</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39347</v>
+        <v>39933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07224627516242961</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04893008850330922</v>
+        <v>0.04924107131712156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1005425210119547</v>
+        <v>0.1020403510261491</v>
       </c>
     </row>
     <row r="23">
@@ -2195,19 +2195,19 @@
         <v>63808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>48222</v>
+        <v>48712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>79131</v>
+        <v>80307</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1630479917871866</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1232222856137215</v>
+        <v>0.1244725442997209</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2022028467238195</v>
+        <v>0.2052094580260033</v>
       </c>
     </row>
     <row r="24">
@@ -2224,19 +2224,19 @@
         <v>121338</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>103606</v>
+        <v>104013</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>140551</v>
+        <v>141265</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3100550406456626</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2647448047177642</v>
+        <v>0.2657846713115623</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3591483061249249</v>
+        <v>0.3609745822717172</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>105381</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89579</v>
+        <v>87547</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126517</v>
+        <v>123653</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2692794606523783</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2289021454019373</v>
+        <v>0.2237083547037275</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3232883913472608</v>
+        <v>0.3159704957789143</v>
       </c>
     </row>
     <row r="26">
@@ -2282,19 +2282,19 @@
         <v>72544</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57145</v>
+        <v>57491</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>88747</v>
+        <v>89610</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1853712317523429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1460223197728747</v>
+        <v>0.1469076847615212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2267748179963085</v>
+        <v>0.2289789581888272</v>
       </c>
     </row>
     <row r="27">
@@ -2344,19 +2344,19 @@
         <v>326340</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>291023</v>
+        <v>294707</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>360656</v>
+        <v>363269</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1064186651409549</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09490167230082532</v>
+        <v>0.09610315121426323</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1176088916164345</v>
+        <v>0.1184609280531599</v>
       </c>
     </row>
     <row r="29">
@@ -2373,19 +2373,19 @@
         <v>671792</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>625231</v>
+        <v>625200</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>718285</v>
+        <v>714881</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2190694673703829</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2038860142483561</v>
+        <v>0.2038759249084585</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2342307215676403</v>
+        <v>0.2331206159568233</v>
       </c>
     </row>
     <row r="30">
@@ -2402,19 +2402,19 @@
         <v>910922</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>861864</v>
+        <v>860573</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>969151</v>
+        <v>963111</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2970491420945542</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.281051288673362</v>
+        <v>0.2806304501630658</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3160374579779067</v>
+        <v>0.3140676559453008</v>
       </c>
     </row>
     <row r="31">
@@ -2431,19 +2431,19 @@
         <v>656957</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>613190</v>
+        <v>607920</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>707155</v>
+        <v>701905</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2142317643263333</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1999593521906377</v>
+        <v>0.1982409499362319</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2306010896175961</v>
+        <v>0.2288891151361357</v>
       </c>
     </row>
     <row r="32">
@@ -2460,19 +2460,19 @@
         <v>500559</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>458723</v>
+        <v>457735</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>544671</v>
+        <v>544961</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1632309610677746</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.149588307676058</v>
+        <v>0.1492660905102277</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1776155269221086</v>
+        <v>0.1777101588968406</v>
       </c>
     </row>
     <row r="33">
@@ -2640,19 +2640,19 @@
         <v>111503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92149</v>
+        <v>91321</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133806</v>
+        <v>131494</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1022359361580584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.084490962975485</v>
+        <v>0.08373160891793409</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1226859670499384</v>
+        <v>0.1205656869101926</v>
       </c>
     </row>
     <row r="5">
@@ -2669,19 +2669,19 @@
         <v>289015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261881</v>
+        <v>261476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>321541</v>
+        <v>317475</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2649956495365057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2401169440861234</v>
+        <v>0.2397456022451059</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2948181860580144</v>
+        <v>0.2910904889726459</v>
       </c>
     </row>
     <row r="6">
@@ -2698,19 +2698,19 @@
         <v>404234</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>371341</v>
+        <v>375428</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>434274</v>
+        <v>437922</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3706392467676662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3404795962522483</v>
+        <v>0.344227432657874</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3981826184625913</v>
+        <v>0.4015274746964255</v>
       </c>
     </row>
     <row r="7">
@@ -2727,19 +2727,19 @@
         <v>173359</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150050</v>
+        <v>150419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200042</v>
+        <v>200913</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.158951937377498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1375798849681297</v>
+        <v>0.1379185308559935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.18341672340115</v>
+        <v>0.1842152443133816</v>
       </c>
     </row>
     <row r="8">
@@ -2756,19 +2756,19 @@
         <v>112529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94127</v>
+        <v>93471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133093</v>
+        <v>131965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1031772301602717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08630476286651993</v>
+        <v>0.08570258736767909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1220324025073432</v>
+        <v>0.1209977688694131</v>
       </c>
     </row>
     <row r="9">
@@ -2818,19 +2818,19 @@
         <v>60750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46486</v>
+        <v>45438</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77496</v>
+        <v>77071</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06950023870251613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05318156204391442</v>
+        <v>0.05198273552547591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08865887720208596</v>
+        <v>0.08817246467375953</v>
       </c>
     </row>
     <row r="11">
@@ -2847,19 +2847,19 @@
         <v>221637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>195522</v>
+        <v>195623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>250886</v>
+        <v>250724</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2535617136369285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2236847835337125</v>
+        <v>0.2237998175755477</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2870233137430613</v>
+        <v>0.2868376260879948</v>
       </c>
     </row>
     <row r="12">
@@ -2876,19 +2876,19 @@
         <v>298166</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>270457</v>
+        <v>271121</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>330082</v>
+        <v>329578</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3411134239145303</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3094131221630332</v>
+        <v>0.3101730569235285</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3776265199309513</v>
+        <v>0.3770505390089292</v>
       </c>
     </row>
     <row r="13">
@@ -2905,19 +2905,19 @@
         <v>174285</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>150419</v>
+        <v>152792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198910</v>
+        <v>199984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1993892524307446</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1720856052341827</v>
+        <v>0.1747997252259998</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2275606103278583</v>
+        <v>0.2287891999323165</v>
       </c>
     </row>
     <row r="14">
@@ -2934,19 +2934,19 @@
         <v>119258</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98209</v>
+        <v>99318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>138949</v>
+        <v>141029</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1364353713152804</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1123551365480817</v>
+        <v>0.1136240121378038</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1589634817795635</v>
+        <v>0.1613427625653755</v>
       </c>
     </row>
     <row r="15">
@@ -2996,19 +2996,19 @@
         <v>47657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34415</v>
+        <v>34876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62963</v>
+        <v>62297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07249608476809551</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05235231182152519</v>
+        <v>0.05305236452562612</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09577865805604542</v>
+        <v>0.09476598260728676</v>
       </c>
     </row>
     <row r="17">
@@ -3025,19 +3025,19 @@
         <v>142142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120421</v>
+        <v>122386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>165776</v>
+        <v>166505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2162255324663874</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1831839077934843</v>
+        <v>0.1861719356625776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2521773342298695</v>
+        <v>0.2532859491024659</v>
       </c>
     </row>
     <row r="18">
@@ -3054,19 +3054,19 @@
         <v>237340</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>214688</v>
+        <v>213560</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>264657</v>
+        <v>262969</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.361040162381943</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3265813842271871</v>
+        <v>0.3248653644017839</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4025939043346561</v>
+        <v>0.4000270444843853</v>
       </c>
     </row>
     <row r="19">
@@ -3083,19 +3083,19 @@
         <v>130706</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>110481</v>
+        <v>109542</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>150916</v>
+        <v>150149</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1988285578207061</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1680631255456761</v>
+        <v>0.1666342061226488</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2295729147176297</v>
+        <v>0.2284058527190839</v>
       </c>
     </row>
     <row r="20">
@@ -3112,19 +3112,19 @@
         <v>99534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>83108</v>
+        <v>82549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118780</v>
+        <v>118352</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1514096625628679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.126423697573746</v>
+        <v>0.1255732672578193</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1806869166979473</v>
+        <v>0.1800369219010046</v>
       </c>
     </row>
     <row r="21">
@@ -3174,19 +3174,19 @@
         <v>31992</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21543</v>
+        <v>21683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45692</v>
+        <v>46755</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07554137163994512</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05086924003601967</v>
+        <v>0.05119882296848621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1078920619347003</v>
+        <v>0.1104013473895182</v>
       </c>
     </row>
     <row r="23">
@@ -3203,19 +3203,19 @@
         <v>90479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72970</v>
+        <v>72863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108825</v>
+        <v>109242</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2136469551923113</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1723029274113717</v>
+        <v>0.1720484733854353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2569658861938235</v>
+        <v>0.2579515804617029</v>
       </c>
     </row>
     <row r="24">
@@ -3232,19 +3232,19 @@
         <v>162327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>142997</v>
+        <v>141361</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>184903</v>
+        <v>181744</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.383298974738814</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3376552681290058</v>
+        <v>0.3337930300256987</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4366060434822565</v>
+        <v>0.4291478152107536</v>
       </c>
     </row>
     <row r="25">
@@ -3261,19 +3261,19 @@
         <v>78840</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63678</v>
+        <v>63417</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>95520</v>
+        <v>97255</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1861618848811604</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1503617505314324</v>
+        <v>0.1497443637530762</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2255478444499733</v>
+        <v>0.2296453145109538</v>
       </c>
     </row>
     <row r="26">
@@ -3290,19 +3290,19 @@
         <v>59862</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46573</v>
+        <v>46640</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>78428</v>
+        <v>74407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1413508135477692</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1099721469519923</v>
+        <v>0.1101295125224718</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1851891292675148</v>
+        <v>0.1756955618274203</v>
       </c>
     </row>
     <row r="27">
@@ -3352,19 +3352,19 @@
         <v>251902</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>218787</v>
+        <v>220245</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>283561</v>
+        <v>285913</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08270961891655813</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07183679964879489</v>
+        <v>0.07231545434993632</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09310472118844434</v>
+        <v>0.09387705523995263</v>
       </c>
     </row>
     <row r="29">
@@ -3381,19 +3381,19 @@
         <v>743273</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>698046</v>
+        <v>696061</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>797651</v>
+        <v>802335</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2440471764040316</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2291971584970857</v>
+        <v>0.2285453241698127</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2619016034805018</v>
+        <v>0.2634393907568455</v>
       </c>
     </row>
     <row r="30">
@@ -3410,19 +3410,19 @@
         <v>1102067</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1050574</v>
+        <v>1046220</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1158265</v>
+        <v>1158680</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.361853750369253</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3449465434550893</v>
+        <v>0.3435169406913908</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3803060268894792</v>
+        <v>0.3804420807158371</v>
       </c>
     </row>
     <row r="31">
@@ -3439,19 +3439,19 @@
         <v>557190</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>514890</v>
+        <v>516431</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>600935</v>
+        <v>601881</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.182948259811417</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1690595611921788</v>
+        <v>0.1695655236022079</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1973114528146168</v>
+        <v>0.1976223840729128</v>
       </c>
     </row>
     <row r="32">
@@ -3468,19 +3468,19 @@
         <v>391182</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>357702</v>
+        <v>353984</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>433385</v>
+        <v>429299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1284411944987402</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1174480892917722</v>
+        <v>0.1162273973190364</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.142298060901145</v>
+        <v>0.1409564752924413</v>
       </c>
     </row>
     <row r="33">
@@ -3648,19 +3648,19 @@
         <v>67813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54398</v>
+        <v>54344</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81821</v>
+        <v>81236</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1613866403374096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1294607915115502</v>
+        <v>0.1293340052551019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1947243195778503</v>
+        <v>0.193333388386765</v>
       </c>
     </row>
     <row r="5">
@@ -3677,19 +3677,19 @@
         <v>142385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126268</v>
+        <v>127270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160134</v>
+        <v>160080</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3388611266914778</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3005034005910004</v>
+        <v>0.302889249566118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3811023780340478</v>
+        <v>0.3809721234811602</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>103057</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88319</v>
+        <v>88093</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118912</v>
+        <v>120301</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2452644017370536</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2101887958920815</v>
+        <v>0.209652902890533</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2829986823219801</v>
+        <v>0.2863033271708648</v>
       </c>
     </row>
     <row r="7">
@@ -3735,19 +3735,19 @@
         <v>62204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50730</v>
+        <v>48862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75919</v>
+        <v>75034</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1480393196908105</v>
+        <v>0.1480393196908104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1207325383095877</v>
+        <v>0.1162860974567332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.180679093675096</v>
+        <v>0.1785736155755123</v>
       </c>
     </row>
     <row r="8">
@@ -3764,19 +3764,19 @@
         <v>44728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34437</v>
+        <v>34584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56720</v>
+        <v>57765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1064485115432486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08195634321341976</v>
+        <v>0.0823051064073709</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.134988592572304</v>
+        <v>0.1374744731015862</v>
       </c>
     </row>
     <row r="9">
@@ -3826,19 +3826,19 @@
         <v>84195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70597</v>
+        <v>70674</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99394</v>
+        <v>99661</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1205027319449924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1010396224891004</v>
+        <v>0.1011498433117565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1422553705520237</v>
+        <v>0.142636955549546</v>
       </c>
     </row>
     <row r="11">
@@ -3855,19 +3855,19 @@
         <v>259893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239421</v>
+        <v>238380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>282715</v>
+        <v>282497</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.37196551912284</v>
+        <v>0.3719655191228399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3426658790397276</v>
+        <v>0.3411755018041758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4046291095948465</v>
+        <v>0.4043168873565106</v>
       </c>
     </row>
     <row r="12">
@@ -3884,19 +3884,19 @@
         <v>185867</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>166650</v>
+        <v>166490</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>206598</v>
+        <v>204992</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2660174712628515</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2385143877051121</v>
+        <v>0.2382846114663743</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2956879944306524</v>
+        <v>0.2933899827968158</v>
       </c>
     </row>
     <row r="13">
@@ -3913,19 +3913,19 @@
         <v>106691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90572</v>
+        <v>91501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125197</v>
+        <v>122781</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1526985478566851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1296293883050652</v>
+        <v>0.1309584948053444</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1791851635070699</v>
+        <v>0.1757273421621214</v>
       </c>
     </row>
     <row r="14">
@@ -3942,19 +3942,19 @@
         <v>62056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49786</v>
+        <v>50400</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76443</v>
+        <v>77166</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08881572981263107</v>
+        <v>0.08881572981263106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07125457990762843</v>
+        <v>0.07213304715790657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1094071937941061</v>
+        <v>0.1104425730012017</v>
       </c>
     </row>
     <row r="15">
@@ -4004,19 +4004,19 @@
         <v>48188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38257</v>
+        <v>38256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60876</v>
+        <v>59730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07690184459219385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06105285630274578</v>
+        <v>0.06105057839829178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.097149000383528</v>
+        <v>0.09532110205668977</v>
       </c>
     </row>
     <row r="17">
@@ -4033,19 +4033,19 @@
         <v>177429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161134</v>
+        <v>160607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197642</v>
+        <v>196903</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2831509790090771</v>
+        <v>0.2831509790090772</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2571470128866542</v>
+        <v>0.2563055879029431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3154084231423042</v>
+        <v>0.3142290093151821</v>
       </c>
     </row>
     <row r="18">
@@ -4062,19 +4062,19 @@
         <v>195474</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>176547</v>
+        <v>176356</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>214883</v>
+        <v>215105</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3119485913196994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2817432853370594</v>
+        <v>0.2814394312421255</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3429230211325507</v>
+        <v>0.343277013780825</v>
       </c>
     </row>
     <row r="19">
@@ -4091,19 +4091,19 @@
         <v>124980</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>107924</v>
+        <v>105935</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>144065</v>
+        <v>142150</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1994498067146193</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1722314052870939</v>
+        <v>0.1690573472020662</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2299068720263947</v>
+        <v>0.2268502895238201</v>
       </c>
     </row>
     <row r="20">
@@ -4120,19 +4120,19 @@
         <v>80552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65606</v>
+        <v>68007</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94931</v>
+        <v>97888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1285487783644104</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1046979696297608</v>
+        <v>0.1085298323245174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1514955801977806</v>
+        <v>0.1562157383071877</v>
       </c>
     </row>
     <row r="21">
@@ -4182,19 +4182,19 @@
         <v>19147</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13152</v>
+        <v>12680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28953</v>
+        <v>27843</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03395342932369144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02332292990009128</v>
+        <v>0.02248436950088523</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05134110490674177</v>
+        <v>0.04937399215589572</v>
       </c>
     </row>
     <row r="23">
@@ -4211,19 +4211,19 @@
         <v>144069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>127825</v>
+        <v>127263</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161564</v>
+        <v>161013</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2554748364528638</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2266701017252329</v>
+        <v>0.2256726794795924</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2864979115264085</v>
+        <v>0.2855212420855686</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>153275</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>137327</v>
+        <v>134352</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>174579</v>
+        <v>171397</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2718000823337495</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2435189289586036</v>
+        <v>0.2382442651958895</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3095783335043079</v>
+        <v>0.3039360032840252</v>
       </c>
     </row>
     <row r="25">
@@ -4269,19 +4269,19 @@
         <v>147863</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>129029</v>
+        <v>129101</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>166780</v>
+        <v>166413</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2622023449388932</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2288041162595465</v>
+        <v>0.2289319768808737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2957472734268431</v>
+        <v>0.2950968925329387</v>
       </c>
     </row>
     <row r="26">
@@ -4298,19 +4298,19 @@
         <v>99572</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>83301</v>
+        <v>84029</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117633</v>
+        <v>118084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.176569306950802</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.147716849393248</v>
+        <v>0.1490062826036377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.208597131287703</v>
+        <v>0.2093970344441694</v>
       </c>
     </row>
     <row r="27">
@@ -4360,19 +4360,19 @@
         <v>219344</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>197514</v>
+        <v>196546</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>242754</v>
+        <v>247573</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09497712347873408</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08552450840964396</v>
+        <v>0.08510537108536911</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1051140282070263</v>
+        <v>0.1072006533231215</v>
       </c>
     </row>
     <row r="29">
@@ -4389,19 +4389,19 @@
         <v>723776</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>687947</v>
+        <v>683528</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>760628</v>
+        <v>760965</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3133991540062612</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2978846841799511</v>
+        <v>0.2959715334375121</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3293563457003899</v>
+        <v>0.3295019834435283</v>
       </c>
     </row>
     <row r="30">
@@ -4418,19 +4418,19 @@
         <v>637673</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>602343</v>
+        <v>600854</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>677675</v>
+        <v>675565</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2761161623928367</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2608178076382848</v>
+        <v>0.2601733331091621</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2934368773078585</v>
+        <v>0.2925233975436039</v>
       </c>
     </row>
     <row r="31">
@@ -4447,19 +4447,19 @@
         <v>441738</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>412134</v>
+        <v>412278</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>476585</v>
+        <v>478598</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1912748946336825</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1784564654292108</v>
+        <v>0.1785187768806247</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2063640682586268</v>
+        <v>0.2072356316132243</v>
       </c>
     </row>
     <row r="32">
@@ -4476,19 +4476,19 @@
         <v>286908</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>259282</v>
+        <v>258074</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>318999</v>
+        <v>316672</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1242326654884855</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1122704045558728</v>
+        <v>0.1117472879257492</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1381283557495583</v>
+        <v>0.1371208847118941</v>
       </c>
     </row>
     <row r="33">
